--- a/script/collection/config.xlsx
+++ b/script/collection/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezra/worksapce/MQSim/script/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E17100-6F36-7944-82B1-3ADD62C024AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B617C4-C5DE-8042-B2E6-35D085B66C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="124">
   <si>
     <t>Host_Parameter_Set</t>
   </si>
@@ -370,14 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>512/8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>512*16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ignore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,6 +383,29 @@
   </si>
   <si>
     <t>struce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserved</t>
+  </si>
+  <si>
+    <t>reserved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,21 +772,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" customWidth="1"/>
+    <col min="1" max="1" width="62.5" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
       </c>
       <c r="C1" t="s">
         <v>108</v>
@@ -782,293 +800,231 @@
       <c r="E1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>111</v>
       </c>
-      <c r="D2">
-        <v>0.01</v>
-      </c>
-      <c r="E2">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>400000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1000000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>798</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>65535</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>512</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>268435456</v>
+      </c>
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>8192</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>400000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4">
-        <v>40000</v>
-      </c>
-      <c r="E4">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1000000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>798</v>
-      </c>
-      <c r="C8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>65535</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>655350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>512</v>
-      </c>
-      <c r="C14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>268435456</v>
-      </c>
-      <c r="C17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="1">
-        <v>6553</v>
-      </c>
-      <c r="E17">
-        <v>655360</v>
-      </c>
-      <c r="F17">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>8192</v>
-      </c>
-      <c r="C18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>320</v>
-      </c>
-      <c r="F18">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>100</v>
-      </c>
-      <c r="C19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>25</v>
-      </c>
-      <c r="B21">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>26</v>
       </c>
       <c r="B22">
         <v>13</v>
@@ -1076,16 +1032,10 @@
       <c r="C22" t="s">
         <v>112</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -1093,207 +1043,186 @@
       <c r="C23" t="s">
         <v>112</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="C24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>2097152</v>
       </c>
-      <c r="C26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>20</v>
       </c>
-      <c r="C27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="C28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="C29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31">
-        <v>0.05</v>
       </c>
       <c r="C31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>0.05</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35">
-        <v>5.0000000000000001E-3</v>
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
       </c>
       <c r="C37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15">
-      <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38">
-        <v>100</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39">
-        <v>700000</v>
-      </c>
-      <c r="C39" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>700000</v>
@@ -1304,10 +1233,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>100000</v>
+        <v>700000</v>
       </c>
       <c r="C41" t="s">
         <v>112</v>
@@ -1315,30 +1244,24 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>100000</v>
       </c>
       <c r="C42" t="s">
         <v>112</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1349,10 +1272,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>333</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>112</v>
@@ -1360,10 +1283,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>333</v>
       </c>
       <c r="C45" t="s">
         <v>112</v>
@@ -1371,59 +1294,65 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
         <v>57</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="C48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
         <v>59</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>60</v>
       </c>
-      <c r="C49" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
         <v>61</v>
-      </c>
-      <c r="B50">
-        <v>75000</v>
-      </c>
-      <c r="C50" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>62</v>
       </c>
       <c r="B51">
         <v>75000</v>
@@ -1432,9 +1361,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>75000</v>
@@ -1443,20 +1372,20 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53">
+        <v>75000</v>
+      </c>
+      <c r="C53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
         <v>64</v>
-      </c>
-      <c r="B53">
-        <v>750000</v>
-      </c>
-      <c r="C53" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>65</v>
       </c>
       <c r="B54">
         <v>750000</v>
@@ -1465,9 +1394,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55">
         <v>750000</v>
@@ -1476,76 +1405,70 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56">
+        <v>750000</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
         <v>67</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>3800000</v>
       </c>
-      <c r="C56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
         <v>68</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>10000</v>
       </c>
-      <c r="C57" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
+      <c r="C58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
         <v>69</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>700000</v>
       </c>
-      <c r="C58" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
+      <c r="C59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
         <v>70</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>100000</v>
       </c>
-      <c r="C59" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
+      <c r="C60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>71</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
-        <v>112</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>72</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1554,357 +1477,326 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>2048</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>100</v>
-      </c>
-      <c r="F62">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63">
+        <v>2048</v>
+      </c>
+      <c r="C63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64">
         <v>256</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63">
-        <v>256</v>
-      </c>
-      <c r="C63" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
         <v>75</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>8192</v>
       </c>
-      <c r="C64" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
+      <c r="C65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
         <v>76</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <v>448</v>
       </c>
-      <c r="C65" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
         <v>77</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>321</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
         <v>78</v>
       </c>
-      <c r="C67" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
+      <c r="C68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
         <v>79</v>
       </c>
-      <c r="C68" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
+      <c r="C69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
         <v>80</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>81</v>
       </c>
-      <c r="C69" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
+      <c r="C70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
         <v>82</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>83</v>
       </c>
-      <c r="C70" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
+      <c r="C71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
         <v>84</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>85</v>
       </c>
-      <c r="C71" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
+      <c r="C72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
         <v>86</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>87</v>
       </c>
-      <c r="C72" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
+      <c r="C73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
         <v>88</v>
-      </c>
-      <c r="B73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>90</v>
       </c>
       <c r="B74" t="s">
         <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" t="s">
         <v>117</v>
       </c>
-      <c r="B75">
+    </row>
+    <row r="76" spans="1:3" ht="15">
+      <c r="A76" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76">
         <v>75</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D75">
+      <c r="C76" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77">
+        <v>50</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79">
+        <v>50</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15">
+      <c r="A81" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81">
         <v>0</v>
       </c>
-      <c r="E75">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15">
-      <c r="A76" t="s">
-        <v>91</v>
-      </c>
-      <c r="B76">
-        <v>50</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>92</v>
-      </c>
-      <c r="B77" t="s">
-        <v>93</v>
-      </c>
-      <c r="C77" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15">
-      <c r="A78" t="s">
-        <v>94</v>
-      </c>
-      <c r="B78">
-        <v>50</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B79" t="s">
-        <v>96</v>
-      </c>
-      <c r="C79" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15">
-      <c r="A80" t="s">
-        <v>97</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>98</v>
-      </c>
-      <c r="B81" t="s">
-        <v>45</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>99</v>
-      </c>
-      <c r="B82">
-        <v>16</v>
+        <v>98</v>
+      </c>
+      <c r="B82" t="s">
+        <v>45</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>100</v>
-      </c>
-      <c r="B83" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="B83">
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>102</v>
-      </c>
-      <c r="B84">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="B84" t="s">
+        <v>101</v>
       </c>
       <c r="C84" t="s">
-        <v>112</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>1024</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>112</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>1000</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B86">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>119</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1000</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B87">
-        <v>32768</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
         <v>112</v>
-      </c>
-      <c r="D87">
-        <v>327</v>
-      </c>
-      <c r="E87">
-        <v>3276800</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B88">
-        <v>10000000000</v>
+        <v>32768</v>
       </c>
       <c r="C88" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89">
+        <v>10000000000</v>
+      </c>
+      <c r="C89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
         <v>107</v>
       </c>
-      <c r="B89">
+      <c r="B90">
         <v>0</v>
       </c>
-      <c r="C89" t="s">
-        <v>116</v>
+      <c r="C90" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/script/collection/config.xlsx
+++ b/script/collection/config.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezra/worksapce/MQSim/script/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B617C4-C5DE-8042-B2E6-35D085B66C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA214A24-952C-CF41-A2FD-E1CE64C4062C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="ssd" sheetId="1" r:id="rId1"/>
+    <sheet name="workload" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="124">
   <si>
     <t>Host_Parameter_Set</t>
   </si>
@@ -133,9 +134,6 @@
     <t>PRIORITY_OUT_OF_ORDER</t>
   </si>
   <si>
-    <t>Overprovisioning_Ratio</t>
-  </si>
-  <si>
     <t>GC_Exec_Threshold</t>
   </si>
   <si>
@@ -251,12 +249,6 @@
   </si>
   <si>
     <t>Page_Metadat_Capacity</t>
-  </si>
-  <si>
-    <t>Seed_ssd</t>
-  </si>
-  <si>
-    <t>IO_Scenario</t>
   </si>
   <si>
     <t>IO_Flow_Parameter_Set_Synthetic</t>
@@ -406,6 +398,18 @@
   </si>
   <si>
     <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO_Scenario</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overprovisioning_Ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="108" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -786,25 +790,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
         <v>120</v>
-      </c>
-      <c r="B1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -812,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -823,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -834,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -845,7 +849,7 @@
         <v>400000</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -856,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -867,7 +871,7 @@
         <v>1000000</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -875,18 +879,24 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="B9">
-        <v>798</v>
+        <v>321</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>99999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -897,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -908,7 +918,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -919,7 +929,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -930,7 +940,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -941,7 +951,7 @@
         <v>65535</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -952,7 +962,7 @@
         <v>512</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -963,7 +973,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -974,7 +984,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -985,7 +995,7 @@
         <v>268435456</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -997,7 +1007,7 @@
         <v>8192</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1008,7 +1018,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1019,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1030,7 +1040,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1041,7 +1051,7 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1052,7 +1062,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1063,7 +1073,7 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1074,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1085,7 +1095,7 @@
         <v>2097152</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1096,7 +1106,7 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1107,7 +1117,7 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1118,150 +1128,150 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="B31">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>0.05</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
         <v>44</v>
       </c>
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>100</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>700000</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>700000</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>100000</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43">
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1272,35 +1282,35 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B45">
         <v>333</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1311,492 +1321,231 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
         <v>54</v>
       </c>
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
         <v>57</v>
       </c>
-      <c r="B49" t="s">
-        <v>58</v>
-      </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
         <v>59</v>
       </c>
-      <c r="B50" t="s">
-        <v>60</v>
-      </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>75000</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>75000</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>75000</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54">
         <v>750000</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>750000</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56">
         <v>750000</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>3800000</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58">
         <v>10000</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59">
         <v>700000</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>100000</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63">
         <v>2048</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64">
         <v>256</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65">
         <v>8192</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66">
         <v>448</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" t="s">
-        <v>81</v>
-      </c>
-      <c r="C70" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>82</v>
-      </c>
-      <c r="B71" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>88</v>
-      </c>
-      <c r="B74" t="s">
-        <v>89</v>
-      </c>
-      <c r="C74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" t="s">
-        <v>89</v>
-      </c>
-      <c r="C75" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15">
-      <c r="A76" t="s">
-        <v>115</v>
-      </c>
-      <c r="B76">
-        <v>75</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15">
-      <c r="A77" t="s">
-        <v>91</v>
-      </c>
-      <c r="B77">
-        <v>50</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15">
-      <c r="A79" t="s">
-        <v>94</v>
-      </c>
-      <c r="B79">
-        <v>50</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>95</v>
-      </c>
-      <c r="B80" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15">
-      <c r="A81" t="s">
-        <v>97</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>98</v>
-      </c>
-      <c r="B82" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>99</v>
-      </c>
-      <c r="B83">
-        <v>16</v>
-      </c>
-      <c r="C83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" t="s">
-        <v>101</v>
-      </c>
-      <c r="C84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>102</v>
-      </c>
-      <c r="B85">
-        <v>8</v>
-      </c>
-      <c r="C85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>103</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86" t="s">
-        <v>119</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>104</v>
-      </c>
-      <c r="B87">
-        <v>16</v>
-      </c>
-      <c r="C87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>105</v>
-      </c>
-      <c r="B88">
-        <v>32768</v>
-      </c>
-      <c r="C88" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>106</v>
-      </c>
-      <c r="B89">
-        <v>10000000000</v>
-      </c>
-      <c r="C89" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1804,4 +1553,312 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F598B807-DC49-344F-B282-EA0A14D789B3}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22">
+        <v>32768</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23">
+        <v>10000000000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>798</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/script/collection/config.xlsx
+++ b/script/collection/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezra/worksapce/MQSim/script/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05275EAD-7AE3-0945-A391-A7A3BF0B5743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7003C0-41FD-764D-830E-7DB234D64EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="131">
   <si>
     <t>Host_Parameter_Set</t>
   </si>
@@ -422,6 +422,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +485,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -791,7 +796,7 @@
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -799,6 +804,7 @@
     <col min="1" max="1" width="62.5" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -869,8 +875,8 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
+      <c r="B6" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C6" t="s">
         <v>120</v>
@@ -903,7 +909,13 @@
         <v>798</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/script/collection/config.xlsx
+++ b/script/collection/config.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezra/worksapce/MQSim/script/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7003C0-41FD-764D-830E-7DB234D64EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE89307B-BEE7-0A47-B040-0C0EB2242928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="600" windowWidth="34480" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ssd" sheetId="1" r:id="rId1"/>
     <sheet name="workload" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -485,11 +485,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -793,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="108" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -846,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -857,7 +860,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1294,15 +1297,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
+    <row r="43" spans="1:5" s="4" customFormat="1" ht="15">
+      <c r="A43" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>8</v>
       </c>
-      <c r="C43" t="s">
-        <v>11</v>
+      <c r="C43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1315,12 +1324,6 @@
       <c r="C44" t="s">
         <v>129</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>32</v>
-      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
@@ -1333,15 +1336,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
+    <row r="46" spans="1:5" s="4" customFormat="1" ht="15">
+      <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>4</v>
       </c>
-      <c r="C46" t="s">
-        <v>11</v>
+      <c r="C46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1354,12 +1363,6 @@
       <c r="C47" t="s">
         <v>7</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>32</v>
-      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
@@ -1501,37 +1504,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
+    <row r="61" spans="1:5" ht="15">
+      <c r="A61" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>2</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="4">
         <v>1</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
+    <row r="62" spans="1:5" ht="15">
+      <c r="A62" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>2</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="4">
         <v>1</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="4">
         <v>32</v>
       </c>
     </row>
@@ -1578,12 +1581,6 @@
       <c r="C66" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="15">
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:3" ht="15">
-      <c r="C77" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/script/collection/config.xlsx
+++ b/script/collection/config.xlsx
@@ -8,21 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezra/worksapce/MQSim/script/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE89307B-BEE7-0A47-B040-0C0EB2242928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A66BE0B-3202-F84C-AD50-80A0D576160A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="600" windowWidth="34480" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3920" yWindow="620" windowWidth="34480" windowHeight="19400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ssd" sheetId="1" r:id="rId1"/>
-    <sheet name="workload" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="ssd0" sheetId="7" r:id="rId1"/>
+    <sheet name="workload0" sheetId="8" r:id="rId2"/>
+    <sheet name="ssd" sheetId="1" r:id="rId3"/>
+    <sheet name="workload" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
+    <sheet name="ssd1" sheetId="6" r:id="rId6"/>
+    <sheet name="workload1" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="133">
   <si>
     <t>Host_Parameter_Set</t>
   </si>
@@ -427,13 +431,20 @@
   <si>
     <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chip_No_Per_Channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,8 +467,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,6 +486,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -479,13 +503,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
@@ -493,10 +520,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -795,11 +827,1137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A362CF51-38D7-6D45-AF01-9DA536A9FF82}">
+  <dimension ref="A1:G66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="45.5" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>400000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1000000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>798</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>65535</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>512</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>268435456</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>8192</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>2097152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31">
+        <v>0.05</v>
+      </c>
+      <c r="E31">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <v>0.05</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <v>700000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41">
+        <v>700000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42">
+        <v>100000</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15">
+      <c r="A43" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="4">
+        <v>8</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>16</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15">
+      <c r="A45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45">
+        <v>333</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15">
+      <c r="A46" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="4">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>16</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15">
+      <c r="A51" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51">
+        <v>75000</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52">
+        <v>75000</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15">
+      <c r="A53" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53">
+        <v>75000</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15">
+      <c r="A54" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54">
+        <v>750000</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55">
+        <v>750000</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15">
+      <c r="A56" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56">
+        <v>750000</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57">
+        <v>3800000</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58">
+        <v>10000</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59">
+        <v>700000</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60">
+        <v>100000</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15">
+      <c r="A61" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="4">
+        <v>2</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>16</v>
+      </c>
+      <c r="G61" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15">
+      <c r="A62" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="4">
+        <v>2</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>16</v>
+      </c>
+      <c r="G62" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15">
+      <c r="A63" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63">
+        <v>2048</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15">
+      <c r="A64" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64">
+        <v>256</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15">
+      <c r="A65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65">
+        <v>8192</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66">
+        <v>448</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{22F4D79D-7479-574A-850E-6936FCCBEDA2}">
+          <x14:formula1>
+            <xm:f>Sheet1!$A$1:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C66</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DFF8DC-B2B7-3443-A643-C472AB68940E}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22">
+        <v>32768</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23">
+        <v>10000000000</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>798</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="108" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A26" zoomScale="108" workbookViewId="0">
+      <selection activeCell="A63" sqref="A1:G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -849,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -860,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -871,7 +2029,7 @@
         <v>400000</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -893,7 +2051,7 @@
         <v>1000000</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -901,7 +2059,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -912,7 +2070,7 @@
         <v>798</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -929,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -957,7 +2115,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -968,7 +2126,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -979,7 +2137,7 @@
         <v>65535</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -990,7 +2148,7 @@
         <v>512</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1012,7 +2170,7 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1023,7 +2181,7 @@
         <v>268435456</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1034,19 +2192,19 @@
         <v>8192</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B20">
         <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1057,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1068,7 +2226,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1079,7 +2237,7 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1090,7 +2248,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1101,7 +2259,7 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1115,15 +2273,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B27">
         <v>2097152</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1145,7 +2303,7 @@
         <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1156,7 +2314,7 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1167,7 +2325,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D31">
         <v>0.05</v>
@@ -1184,7 +2342,7 @@
         <v>0.05</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1206,7 +2364,7 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1217,7 +2375,7 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1228,7 +2386,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1250,7 +2408,7 @@
         <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1261,7 +2419,7 @@
         <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1">
@@ -1271,8 +2429,8 @@
       <c r="B40">
         <v>700000</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>129</v>
+      <c r="C40" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1283,7 +2441,7 @@
         <v>700000</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1294,11 +2452,11 @@
         <v>100000</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="4" customFormat="1" ht="15">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="4">
@@ -1311,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="4">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1322,11 +2480,11 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15">
+      <c r="A45" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B45">
@@ -1337,8 +2495,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="4" customFormat="1" ht="15">
-      <c r="A46" s="4" t="s">
-        <v>62</v>
+      <c r="A46" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="B46" s="4">
         <v>4</v>
@@ -1350,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="4">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1394,8 +2552,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
+    <row r="51" spans="1:5" ht="15">
+      <c r="A51" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B51">
@@ -1413,11 +2571,11 @@
         <v>75000</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15">
+      <c r="A53" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B53">
@@ -1427,8 +2585,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
+    <row r="54" spans="1:5" ht="15">
+      <c r="A54" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B54">
@@ -1446,11 +2604,11 @@
         <v>750000</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15">
+      <c r="A56" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B56">
@@ -1468,7 +2626,7 @@
         <v>3800000</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1479,7 +2637,7 @@
         <v>10000</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1490,7 +2648,7 @@
         <v>700000</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1501,11 +2659,11 @@
         <v>100000</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B61" s="4">
@@ -1518,11 +2676,11 @@
         <v>1</v>
       </c>
       <c r="E61" s="4">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B62" s="4">
@@ -1535,11 +2693,11 @@
         <v>1</v>
       </c>
       <c r="E62" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15">
+      <c r="A63" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B63">
@@ -1549,8 +2707,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
+    <row r="64" spans="1:5" ht="15">
+      <c r="A64" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B64">
@@ -1560,8 +2718,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+    <row r="65" spans="1:3" ht="15">
+      <c r="A65" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B65">
@@ -1579,7 +2737,7 @@
         <v>448</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1601,17 +2759,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C6" sqref="A1:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
   </cols>
@@ -1806,7 +2964,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1828,7 +2986,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1839,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1856,7 +3014,7 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1867,7 +3025,7 @@
         <v>32768</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1909,12 +3067,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B262B79-E985-764E-B0A3-8AF7869FA1F1}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1958,4 +3116,1113 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC066979-B432-E44D-BF29-FAAC8B2490BE}">
+  <dimension ref="A1:G66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="62.5" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>400000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1000000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>798</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>65535</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>512</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>268435456</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>8192</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>2097152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31">
+        <v>0.05</v>
+      </c>
+      <c r="E31">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <v>0.05</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <v>700000</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41">
+        <v>700000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42">
+        <v>100000</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="4" customFormat="1" ht="15">
+      <c r="A43" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="4">
+        <v>8</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15">
+      <c r="A45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45">
+        <v>333</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="4" customFormat="1" ht="15">
+      <c r="A46" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="4">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15">
+      <c r="A51" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51">
+        <v>75000</v>
+      </c>
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52">
+        <v>75000</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15">
+      <c r="A53" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53">
+        <v>75000</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15">
+      <c r="A54" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54">
+        <v>750000</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55">
+        <v>750000</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15">
+      <c r="A56" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56">
+        <v>750000</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57">
+        <v>3800000</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58">
+        <v>10000</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59">
+        <v>700000</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60">
+        <v>100000</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15">
+      <c r="A61" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="4">
+        <v>2</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15">
+      <c r="A62" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="4">
+        <v>2</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15">
+      <c r="A63" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63">
+        <v>2048</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15">
+      <c r="A64" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64">
+        <v>256</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15">
+      <c r="A65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65">
+        <v>8192</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66">
+        <v>448</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9368243-F1AC-7845-9F02-65CB5420EB7C}">
+          <x14:formula1>
+            <xm:f>Sheet1!$A$1:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535B7711-D371-7A48-B076-6DCC380519DD}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22">
+        <v>32768</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23">
+        <v>10000000000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>798</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/script/collection/config.xlsx
+++ b/script/collection/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezra/worksapce/MQSim/script/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A66BE0B-3202-F84C-AD50-80A0D576160A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63393DF-7C0F-EC4C-B702-46B40117EE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="620" windowWidth="34480" windowHeight="19400" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="520" windowWidth="21600" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ssd0" sheetId="7" r:id="rId1"/>
@@ -437,7 +437,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>modifed</t>
+    <t>Block_No_Per_Plane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -830,14 +831,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A362CF51-38D7-6D45-AF01-9DA536A9FF82}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="45.5" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1198,7 +1200,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D31">
         <v>0.05</v>
@@ -1336,17 +1338,17 @@
         <v>8</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
       </c>
       <c r="E43" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1379,13 +1381,13 @@
         <v>4</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
       </c>
       <c r="E46" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4">
@@ -1441,7 +1443,7 @@
         <v>75000</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1463,7 +1465,7 @@
         <v>75000</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15">
@@ -1474,7 +1476,7 @@
         <v>750000</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1496,7 +1498,7 @@
         <v>750000</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1551,13 +1553,13 @@
         <v>2</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
       </c>
       <c r="E61" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G61" s="4">
         <v>8</v>
@@ -1571,13 +1573,13 @@
         <v>2</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
       </c>
       <c r="E62" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G62" s="4">
         <v>8</v>
@@ -1585,7 +1587,7 @@
     </row>
     <row r="63" spans="1:7" ht="15">
       <c r="A63" s="5" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="B63">
         <v>2048</v>
@@ -1613,7 +1615,7 @@
         <v>8192</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1650,12 +1652,13 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1772,7 +1775,7 @@
         <v>75</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
@@ -1783,7 +1786,7 @@
         <v>50</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
@@ -1805,7 +1808,7 @@
         <v>50</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15">
@@ -1943,7 +1946,7 @@
         <v>798</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1956,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="108" workbookViewId="0">
-      <selection activeCell="A63" sqref="A1:G66"/>
+    <sheetView topLeftCell="A32" zoomScale="108" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -3072,7 +3075,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -3122,8 +3125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC066979-B432-E44D-BF29-FAAC8B2490BE}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -3236,7 +3239,7 @@
         <v>798</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3929,7 +3932,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -4218,7 +4221,7 @@
         <v>798</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
